--- a/Timesheets/2019-WEB289-YD1-Cecil-Jamie-Timesheet-Week1.xlsx
+++ b/Timesheets/2019-WEB289-YD1-Cecil-Jamie-Timesheet-Week1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\School\WEB-289-YD1 Internet Technologies Project\Timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8491441D-715D-4BDF-B9F6-0217B6BE6F4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3483140-9B39-49A0-97C4-70840B6A5581}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" tabRatio="560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" tabRatio="560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="17">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>BeerCityMaps Database Design</t>
+  </si>
+  <si>
+    <t>BeerCityMaps database-connection.php</t>
+  </si>
+  <si>
+    <t>BeerCityMaps Registration Page</t>
   </si>
 </sst>
 </file>
@@ -733,7 +739,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 9'!E21</f>
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +804,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 10'!E21</f>
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -863,7 +869,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 11'!E21</f>
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -928,7 +934,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 12'!E21</f>
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -993,7 +999,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 13'!E21</f>
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1058,7 +1064,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1123,7 +1129,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1507,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1667,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1694,13 +1700,188 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>42050</v>
+      </c>
+      <c r="B2" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>42051</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>42052</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>42053</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>42053</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>42054</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>42055</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>42055</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>42056</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>42056</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>42056</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.1875</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.3125</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1709,7 +1890,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 5'!E21</f>
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1774,7 +1955,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 6'!E21</f>
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1839,7 +2020,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 7'!E21</f>
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1904,7 +2085,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 8'!E21</f>
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
